--- a/biology/Zoologie/Conus_penchaszadehi/Conus_penchaszadehi.xlsx
+++ b/biology/Zoologie/Conus_penchaszadehi/Conus_penchaszadehi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus penchaszadehi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large de la Colombie et du Venezuela.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve du Golfo de Morrosquillo sur la côte caraïbe de la Colombie au Golfo Triste au Venezuela. Conus penchaszadehi ne présente aucune menace connue. Cette espèce est classée comme étant de préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve du Golfo de Morrosquillo sur la côte caraïbe de la Colombie au Golfo Triste au Venezuela. Conus penchaszadehi ne présente aucune menace connue. Cette espèce est classée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_penchaszadehi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_penchaszadehi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus penchaszadehi a été décrite pour la première fois en 1986 par le malacologiste américain Edward James Petuch (d)[2],[3].
-Synonymes
-Conasprelloides penchaszadehi (Petuch, 1986) · non accepté
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus penchaszadehi a été décrite pour la première fois en 1986 par le malacologiste américain Edward James Petuch (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_penchaszadehi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_penchaszadehi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conasprelloides penchaszadehi (Petuch, 1986) · non accepté
 Conus (Dauciconus) penchaszadehi Petuch, 1986 · appellation alternative</t>
         </is>
       </c>
